--- a/team_specific_matrix/S'western Adventist_B.xlsx
+++ b/team_specific_matrix/S'western Adventist_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2857142857142857</v>
+        <v>0.275</v>
       </c>
       <c r="C2">
-        <v>0.4285714285714285</v>
+        <v>0.425</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2857142857142857</v>
+        <v>0.225</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8333333333333334</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.375</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.375</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,13 +793,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07692307692307693</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07692307692307693</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07692307692307693</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07692307692307693</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2307692307692308</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="R8">
-        <v>0.1538461538461539</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="S8">
-        <v>0.3076923076923077</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2857142857142857</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2857142857142857</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1428571428571428</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S9">
-        <v>0.1428571428571428</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0945945945945946</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02702702702702703</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05405405405405406</v>
+        <v>0.03879310344827586</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1756756756756757</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2837837837837838</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="R10">
-        <v>0.01351351351351351</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="S10">
-        <v>0.3513513513513514</v>
+        <v>0.293103448275862</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L11">
-        <v>0.7142857142857143</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J15">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="K15">
-        <v>0.125</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09090909090909091</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03571428571428571</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1071428571428571</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="I17">
-        <v>0.1071428571428571</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="J17">
-        <v>0.6071428571428571</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="K17">
-        <v>0.07142857142857142</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03571428571428571</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.03571428571428571</v>
+        <v>0.03157894736842105</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02439024390243903</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1463414634146341</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="I19">
-        <v>0.0975609756097561</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="J19">
-        <v>0.4878048780487805</v>
+        <v>0.5929203539823009</v>
       </c>
       <c r="K19">
-        <v>0.07317073170731707</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.1219512195121951</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04878048780487805</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
   </sheetData>
